--- a/data/results/to_be/predictions/prediction_field.xlsx
+++ b/data/results/to_be/predictions/prediction_field.xlsx
@@ -8059,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8097,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8173,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8325,7 +8325,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8363,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8401,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9959,7 +9959,7 @@
         <v>2</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -10149,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -10263,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -10339,7 +10339,7 @@
         <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -10377,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -10871,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -10985,7 +10985,7 @@
         <v>3</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -12239,7 +12239,7 @@
         <v>2</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -12353,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -12581,7 +12581,7 @@
         <v>2</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -13075,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -13113,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -13151,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -13303,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -13417,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -13949,7 +13949,7 @@
         <v>2</v>
       </c>
       <c r="M159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -13987,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -14291,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -14367,7 +14367,7 @@
         <v>2</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -14405,7 +14405,7 @@
         <v>2</v>
       </c>
       <c r="M171">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -15013,7 +15013,7 @@
         <v>2</v>
       </c>
       <c r="M187">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -15089,7 +15089,7 @@
         <v>2</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -15279,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -15317,7 +15317,7 @@
         <v>2</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -15355,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -15583,7 +15583,7 @@
         <v>2</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -15773,7 +15773,7 @@
         <v>2</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -15963,7 +15963,7 @@
         <v>2</v>
       </c>
       <c r="M212">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -16001,7 +16001,7 @@
         <v>2</v>
       </c>
       <c r="M213">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -16229,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="M219">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -16267,7 +16267,7 @@
         <v>2</v>
       </c>
       <c r="M220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="M258">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -17775,7 +17775,7 @@
         <v>2</v>
       </c>
       <c r="M260">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -18455,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="M282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -18645,7 +18645,7 @@
         <v>1</v>
       </c>
       <c r="M287">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -18835,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="M292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -18949,7 +18949,7 @@
         <v>3</v>
       </c>
       <c r="M295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -19139,7 +19139,7 @@
         <v>3</v>
       </c>
       <c r="M300">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -19291,7 +19291,7 @@
         <v>3</v>
       </c>
       <c r="M304">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -19329,7 +19329,7 @@
         <v>3</v>
       </c>
       <c r="M305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -19595,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="M312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -20013,7 +20013,7 @@
         <v>3</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -20089,7 +20089,7 @@
         <v>2</v>
       </c>
       <c r="M325">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -20241,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="M329">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="M330">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -20355,7 +20355,7 @@
         <v>3</v>
       </c>
       <c r="M332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -20393,7 +20393,7 @@
         <v>3</v>
       </c>
       <c r="M333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -20735,7 +20735,7 @@
         <v>1</v>
       </c>
       <c r="M342">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -21077,7 +21077,7 @@
         <v>1</v>
       </c>
       <c r="M351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -21875,7 +21875,7 @@
         <v>2</v>
       </c>
       <c r="M372">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -22141,7 +22141,7 @@
         <v>2</v>
       </c>
       <c r="M379">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -22179,7 +22179,7 @@
         <v>2</v>
       </c>
       <c r="M380">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -22217,7 +22217,7 @@
         <v>2</v>
       </c>
       <c r="M381">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -22369,7 +22369,7 @@
         <v>1</v>
       </c>
       <c r="M385">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -22445,7 +22445,7 @@
         <v>1</v>
       </c>
       <c r="M387">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:13">
@@ -22673,7 +22673,7 @@
         <v>1</v>
       </c>
       <c r="M393">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:13">
@@ -22711,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="M394">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -23091,7 +23091,7 @@
         <v>1</v>
       </c>
       <c r="M404">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -23319,7 +23319,7 @@
         <v>2</v>
       </c>
       <c r="M410">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -23357,7 +23357,7 @@
         <v>2</v>
       </c>
       <c r="M411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -24535,7 +24535,7 @@
         <v>2</v>
       </c>
       <c r="M442">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:13">
@@ -24801,7 +24801,7 @@
         <v>1</v>
       </c>
       <c r="M449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:13">
@@ -26397,7 +26397,7 @@
         <v>1</v>
       </c>
       <c r="M491">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:13">
@@ -26473,7 +26473,7 @@
         <v>1</v>
       </c>
       <c r="M493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:13">
@@ -26511,7 +26511,7 @@
         <v>3</v>
       </c>
       <c r="M494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:13">
@@ -26587,7 +26587,7 @@
         <v>1</v>
       </c>
       <c r="M496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:13">
@@ -26625,7 +26625,7 @@
         <v>3</v>
       </c>
       <c r="M497">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:13">
@@ -27677,7 +27677,7 @@
         <v>2</v>
       </c>
       <c r="M525">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -27715,7 +27715,7 @@
         <v>2</v>
       </c>
       <c r="M526">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:13">
@@ -27817,7 +27817,7 @@
         <v>2</v>
       </c>
       <c r="M529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -27893,7 +27893,7 @@
         <v>2</v>
       </c>
       <c r="M531">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -27983,7 +27983,7 @@
         <v>2</v>
       </c>
       <c r="M534">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:13">
@@ -28021,7 +28021,7 @@
         <v>2</v>
       </c>
       <c r="M535">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:13">
@@ -28059,7 +28059,7 @@
         <v>2</v>
       </c>
       <c r="M536">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:13">
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="M537">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:13">
@@ -28213,7 +28213,7 @@
         <v>3</v>
       </c>
       <c r="M541">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:13">
@@ -28239,7 +28239,7 @@
         <v>3</v>
       </c>
       <c r="M542">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:13">
@@ -29635,7 +29635,7 @@
         <v>1</v>
       </c>
       <c r="M586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:13">
@@ -31307,7 +31307,7 @@
         <v>3</v>
       </c>
       <c r="M630">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:13">
@@ -31421,7 +31421,7 @@
         <v>2</v>
       </c>
       <c r="M633">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634" spans="1:13">
@@ -31535,7 +31535,7 @@
         <v>1</v>
       </c>
       <c r="M636">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="637" spans="1:13">
@@ -33473,7 +33473,7 @@
         <v>1</v>
       </c>
       <c r="M687">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:13">
@@ -33625,7 +33625,7 @@
         <v>1</v>
       </c>
       <c r="M691">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:13">
@@ -33663,7 +33663,7 @@
         <v>3</v>
       </c>
       <c r="M692">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:13">
@@ -33777,7 +33777,7 @@
         <v>1</v>
       </c>
       <c r="M695">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:13">
@@ -34005,7 +34005,7 @@
         <v>3</v>
       </c>
       <c r="M701">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:13">
@@ -34271,7 +34271,7 @@
         <v>2</v>
       </c>
       <c r="M708">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:13">
@@ -34423,7 +34423,7 @@
         <v>1</v>
       </c>
       <c r="M712">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:13">
@@ -34499,7 +34499,7 @@
         <v>2</v>
       </c>
       <c r="M714">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715" spans="1:13">
@@ -34537,7 +34537,7 @@
         <v>1</v>
       </c>
       <c r="M715">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:13">
@@ -34651,7 +34651,7 @@
         <v>2</v>
       </c>
       <c r="M718">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:13">
@@ -34689,7 +34689,7 @@
         <v>2</v>
       </c>
       <c r="M719">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:13">
@@ -34841,7 +34841,7 @@
         <v>1</v>
       </c>
       <c r="M723">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:13">
@@ -34917,7 +34917,7 @@
         <v>1</v>
       </c>
       <c r="M725">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:13">
@@ -35107,7 +35107,7 @@
         <v>1</v>
       </c>
       <c r="M730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:13">
@@ -35183,7 +35183,7 @@
         <v>1</v>
       </c>
       <c r="M732">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="733" spans="1:13">
@@ -35411,7 +35411,7 @@
         <v>3</v>
       </c>
       <c r="M738">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:13">
@@ -35449,7 +35449,7 @@
         <v>2</v>
       </c>
       <c r="M739">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="740" spans="1:13">
@@ -35525,7 +35525,7 @@
         <v>2</v>
       </c>
       <c r="M741">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:13">
@@ -35753,7 +35753,7 @@
         <v>1</v>
       </c>
       <c r="M747">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748" spans="1:13">
@@ -35829,7 +35829,7 @@
         <v>1</v>
       </c>
       <c r="M749">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="750" spans="1:13">
@@ -35943,7 +35943,7 @@
         <v>1</v>
       </c>
       <c r="M752">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="753" spans="1:13">
@@ -35981,7 +35981,7 @@
         <v>1</v>
       </c>
       <c r="M753">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:13">
@@ -36019,7 +36019,7 @@
         <v>1</v>
       </c>
       <c r="M754">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:13">
@@ -36247,7 +36247,7 @@
         <v>2</v>
       </c>
       <c r="M760">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="761" spans="1:13">
@@ -36551,7 +36551,7 @@
         <v>1</v>
       </c>
       <c r="M768">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:13">
@@ -36589,7 +36589,7 @@
         <v>1</v>
       </c>
       <c r="M769">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:13">
@@ -36627,7 +36627,7 @@
         <v>1</v>
       </c>
       <c r="M770">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="771" spans="1:13">
@@ -36703,7 +36703,7 @@
         <v>1</v>
       </c>
       <c r="M772">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:13">
@@ -38455,7 +38455,7 @@
         <v>2</v>
       </c>
       <c r="M820">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:13">
@@ -40431,7 +40431,7 @@
         <v>3</v>
       </c>
       <c r="M872">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:13">
@@ -40583,7 +40583,7 @@
         <v>3</v>
       </c>
       <c r="M876">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:13">
@@ -40887,7 +40887,7 @@
         <v>1</v>
       </c>
       <c r="M884">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885" spans="1:13">
@@ -40925,7 +40925,7 @@
         <v>3</v>
       </c>
       <c r="M885">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:13">
@@ -41001,7 +41001,7 @@
         <v>2</v>
       </c>
       <c r="M887">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="888" spans="1:13">
@@ -41077,7 +41077,7 @@
         <v>1</v>
       </c>
       <c r="M889">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="890" spans="1:13">
@@ -41115,7 +41115,7 @@
         <v>1</v>
       </c>
       <c r="M890">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:13">
@@ -41153,7 +41153,7 @@
         <v>1</v>
       </c>
       <c r="M891">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:13">
@@ -41191,7 +41191,7 @@
         <v>3</v>
       </c>
       <c r="M892">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="893" spans="1:13">
@@ -41229,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="M893">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:13">
@@ -41457,7 +41457,7 @@
         <v>1</v>
       </c>
       <c r="M899">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="900" spans="1:13">
@@ -41571,7 +41571,7 @@
         <v>3</v>
       </c>
       <c r="M902">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:13">
@@ -41723,7 +41723,7 @@
         <v>1</v>
       </c>
       <c r="M906">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:13">
@@ -41989,7 +41989,7 @@
         <v>3</v>
       </c>
       <c r="M913">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:13">
@@ -42103,7 +42103,7 @@
         <v>1</v>
       </c>
       <c r="M916">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:13">
@@ -42141,7 +42141,7 @@
         <v>3</v>
       </c>
       <c r="M917">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:13">
@@ -42217,7 +42217,7 @@
         <v>3</v>
       </c>
       <c r="M919">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="920" spans="1:13">
@@ -42331,7 +42331,7 @@
         <v>1</v>
       </c>
       <c r="M922">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:13">
@@ -42445,7 +42445,7 @@
         <v>3</v>
       </c>
       <c r="M925">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:13">
@@ -42483,7 +42483,7 @@
         <v>3</v>
       </c>
       <c r="M926">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:13">
@@ -42559,7 +42559,7 @@
         <v>1</v>
       </c>
       <c r="M928">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:13">
@@ -42825,7 +42825,7 @@
         <v>3</v>
       </c>
       <c r="M935">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:13">
@@ -42863,7 +42863,7 @@
         <v>3</v>
       </c>
       <c r="M936">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:13">
@@ -42901,7 +42901,7 @@
         <v>3</v>
       </c>
       <c r="M937">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:13">
@@ -43053,7 +43053,7 @@
         <v>2</v>
       </c>
       <c r="M941">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="942" spans="1:13">
@@ -43091,7 +43091,7 @@
         <v>2</v>
       </c>
       <c r="M942">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:13">
@@ -43281,7 +43281,7 @@
         <v>1</v>
       </c>
       <c r="M947">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:13">
@@ -43661,7 +43661,7 @@
         <v>3</v>
       </c>
       <c r="M957">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="958" spans="1:13">
@@ -43737,7 +43737,7 @@
         <v>3</v>
       </c>
       <c r="M959">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960" spans="1:13">
@@ -43851,7 +43851,7 @@
         <v>3</v>
       </c>
       <c r="M962">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963" spans="1:13">
@@ -43927,7 +43927,7 @@
         <v>3</v>
       </c>
       <c r="M964">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="965" spans="1:13">
@@ -43965,7 +43965,7 @@
         <v>3</v>
       </c>
       <c r="M965">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:13">
@@ -44041,7 +44041,7 @@
         <v>3</v>
       </c>
       <c r="M967">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:13">
@@ -44117,7 +44117,7 @@
         <v>3</v>
       </c>
       <c r="M969">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:13">
@@ -44345,7 +44345,7 @@
         <v>1</v>
       </c>
       <c r="M975">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:13">
@@ -44535,7 +44535,7 @@
         <v>1</v>
       </c>
       <c r="M980">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:13">
@@ -47575,7 +47575,7 @@
         <v>1</v>
       </c>
       <c r="M1060">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:13">
@@ -47879,7 +47879,7 @@
         <v>1</v>
       </c>
       <c r="M1068">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1069" spans="1:13">
@@ -48069,7 +48069,7 @@
         <v>1</v>
       </c>
       <c r="M1073">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:13">
@@ -48335,7 +48335,7 @@
         <v>1</v>
       </c>
       <c r="M1080">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:13">
@@ -48373,7 +48373,7 @@
         <v>1</v>
       </c>
       <c r="M1081">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:13">
@@ -48715,7 +48715,7 @@
         <v>3</v>
       </c>
       <c r="M1090">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:13">
@@ -49627,7 +49627,7 @@
         <v>1</v>
       </c>
       <c r="M1114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:13">
@@ -50311,7 +50311,7 @@
         <v>1</v>
       </c>
       <c r="M1132">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:13">
@@ -50957,7 +50957,7 @@
         <v>1</v>
       </c>
       <c r="M1149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:13">
@@ -51109,7 +51109,7 @@
         <v>2</v>
       </c>
       <c r="M1153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:13">
@@ -51793,7 +51793,7 @@
         <v>1</v>
       </c>
       <c r="M1171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:13">
@@ -51831,7 +51831,7 @@
         <v>1</v>
       </c>
       <c r="M1172">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:13">
@@ -52249,7 +52249,7 @@
         <v>1</v>
       </c>
       <c r="M1183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:13">
@@ -52287,7 +52287,7 @@
         <v>1</v>
       </c>
       <c r="M1184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:13">
@@ -52363,7 +52363,7 @@
         <v>3</v>
       </c>
       <c r="M1186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:13">
@@ -52439,7 +52439,7 @@
         <v>1</v>
       </c>
       <c r="M1188">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1189" spans="1:13">
@@ -52477,7 +52477,7 @@
         <v>1</v>
       </c>
       <c r="M1189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:13">
@@ -52629,7 +52629,7 @@
         <v>1</v>
       </c>
       <c r="M1193">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1194" spans="1:13">
@@ -52933,7 +52933,7 @@
         <v>1</v>
       </c>
       <c r="M1201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:13">
@@ -52971,7 +52971,7 @@
         <v>1</v>
       </c>
       <c r="M1202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1203" spans="1:13">
@@ -53009,7 +53009,7 @@
         <v>1</v>
       </c>
       <c r="M1203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:13">
@@ -53047,7 +53047,7 @@
         <v>1</v>
       </c>
       <c r="M1204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1205" spans="1:13">
@@ -53085,7 +53085,7 @@
         <v>1</v>
       </c>
       <c r="M1205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:13">
@@ -53123,7 +53123,7 @@
         <v>3</v>
       </c>
       <c r="M1206">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:13">
@@ -53161,7 +53161,7 @@
         <v>3</v>
       </c>
       <c r="M1207">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:13">
@@ -54149,7 +54149,7 @@
         <v>1</v>
       </c>
       <c r="M1233">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:13">
@@ -54339,7 +54339,7 @@
         <v>1</v>
       </c>
       <c r="M1238">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:13">
@@ -54453,7 +54453,7 @@
         <v>1</v>
       </c>
       <c r="M1241">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1242" spans="1:13">
@@ -55193,7 +55193,7 @@
         <v>5</v>
       </c>
       <c r="M1269">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1270" spans="1:13">
@@ -56565,7 +56565,7 @@
         <v>1</v>
       </c>
       <c r="M1319">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1320" spans="1:13">
@@ -56679,7 +56679,7 @@
         <v>1</v>
       </c>
       <c r="M1322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:13">
@@ -58527,7 +58527,7 @@
         <v>1</v>
       </c>
       <c r="M1376">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1377" spans="1:13">
@@ -60389,7 +60389,7 @@
         <v>2</v>
       </c>
       <c r="M1425">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426" spans="1:13">
@@ -60921,7 +60921,7 @@
         <v>1</v>
       </c>
       <c r="M1439">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1440" spans="1:13">
@@ -60985,7 +60985,7 @@
         <v>2203</v>
       </c>
       <c r="M1441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1442" spans="1:13">
@@ -61615,7 +61615,7 @@
         <v>1</v>
       </c>
       <c r="M1459">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1460" spans="1:13">
@@ -61982,7 +61982,7 @@
         <v>7</v>
       </c>
       <c r="M1470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471" spans="1:13">
@@ -62008,7 +62008,7 @@
         <v>7</v>
       </c>
       <c r="M1471">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472" spans="1:13">
@@ -62034,7 +62034,7 @@
         <v>7</v>
       </c>
       <c r="M1472">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1473" spans="1:13">
@@ -62242,7 +62242,7 @@
         <v>7</v>
       </c>
       <c r="M1480">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1481" spans="1:13">
@@ -62446,7 +62446,7 @@
         <v>3</v>
       </c>
       <c r="M1486">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487" spans="1:13">
@@ -62598,7 +62598,7 @@
         <v>3</v>
       </c>
       <c r="M1490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491" spans="1:13">
@@ -62636,7 +62636,7 @@
         <v>3</v>
       </c>
       <c r="M1491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1492" spans="1:13">
@@ -62674,7 +62674,7 @@
         <v>3</v>
       </c>
       <c r="M1492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1493" spans="1:13">
@@ -62826,7 +62826,7 @@
         <v>3</v>
       </c>
       <c r="M1496">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:13">
@@ -62902,7 +62902,7 @@
         <v>1</v>
       </c>
       <c r="M1498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1499" spans="1:13">
@@ -63054,7 +63054,7 @@
         <v>3</v>
       </c>
       <c r="M1502">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503" spans="1:13">
@@ -63130,7 +63130,7 @@
         <v>3</v>
       </c>
       <c r="M1504">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1505" spans="1:13">
@@ -63320,7 +63320,7 @@
         <v>3</v>
       </c>
       <c r="M1509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510" spans="1:13">
@@ -63564,7 +63564,7 @@
         <v>8</v>
       </c>
       <c r="M1517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1518" spans="1:13">
@@ -63824,7 +63824,7 @@
         <v>8</v>
       </c>
       <c r="M1527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1528" spans="1:13">
@@ -63902,7 +63902,7 @@
         <v>8</v>
       </c>
       <c r="M1530">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1531" spans="1:13">
@@ -63954,7 +63954,7 @@
         <v>8</v>
       </c>
       <c r="M1532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1533" spans="1:13">
@@ -64526,7 +64526,7 @@
         <v>8</v>
       </c>
       <c r="M1554">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1555" spans="1:13">
@@ -64812,7 +64812,7 @@
         <v>8</v>
       </c>
       <c r="M1565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1566" spans="1:13">
@@ -64942,7 +64942,7 @@
         <v>8</v>
       </c>
       <c r="M1570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1571" spans="1:13">
@@ -65426,7 +65426,7 @@
         <v>1</v>
       </c>
       <c r="M1584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1585" spans="1:13">
@@ -66338,7 +66338,7 @@
         <v>1</v>
       </c>
       <c r="M1608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1609" spans="1:13">
@@ -66452,7 +66452,7 @@
         <v>1</v>
       </c>
       <c r="M1611">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1612" spans="1:13">
@@ -66680,7 +66680,7 @@
         <v>1</v>
       </c>
       <c r="M1617">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1618" spans="1:13">
@@ -66718,7 +66718,7 @@
         <v>1</v>
       </c>
       <c r="M1618">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1619" spans="1:13">
@@ -67098,7 +67098,7 @@
         <v>1</v>
       </c>
       <c r="M1628">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1629" spans="1:13">
@@ -67630,7 +67630,7 @@
         <v>3</v>
       </c>
       <c r="M1642">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1643" spans="1:13">
@@ -68428,7 +68428,7 @@
         <v>3</v>
       </c>
       <c r="M1663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1664" spans="1:13">
@@ -68808,7 +68808,7 @@
         <v>3</v>
       </c>
       <c r="M1673">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1674" spans="1:13">
@@ -69074,7 +69074,7 @@
         <v>3</v>
       </c>
       <c r="M1680">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1681" spans="1:13">
@@ -69568,7 +69568,7 @@
         <v>1</v>
       </c>
       <c r="M1693">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1694" spans="1:13">
@@ -70100,7 +70100,7 @@
         <v>1</v>
       </c>
       <c r="M1707">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1708" spans="1:13">
@@ -70176,7 +70176,7 @@
         <v>1</v>
       </c>
       <c r="M1709">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1710" spans="1:13">
@@ -70442,7 +70442,7 @@
         <v>2</v>
       </c>
       <c r="M1716">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1717" spans="1:13">
@@ -71164,7 +71164,7 @@
         <v>1</v>
       </c>
       <c r="M1735">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1736" spans="1:13">
@@ -72663,7 +72663,7 @@
         <v>1</v>
       </c>
       <c r="M1775">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1776" spans="1:13">
@@ -73135,7 +73135,7 @@
         <v>9</v>
       </c>
       <c r="M1789">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1790" spans="1:13">
@@ -73317,7 +73317,7 @@
         <v>9</v>
       </c>
       <c r="M1796">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:13">
@@ -73343,7 +73343,7 @@
         <v>9</v>
       </c>
       <c r="M1797">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1798" spans="1:13">
@@ -73421,7 +73421,7 @@
         <v>9</v>
       </c>
       <c r="M1800">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1801" spans="1:13">
@@ -73967,7 +73967,7 @@
         <v>9</v>
       </c>
       <c r="M1821">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1822" spans="1:13">
@@ -74187,7 +74187,7 @@
         <v>1</v>
       </c>
       <c r="M1829">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1830" spans="1:13">
@@ -74491,7 +74491,7 @@
         <v>1</v>
       </c>
       <c r="M1837">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1838" spans="1:13">
@@ -75137,7 +75137,7 @@
         <v>1</v>
       </c>
       <c r="M1854">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1855" spans="1:13">
@@ -75289,7 +75289,7 @@
         <v>1</v>
       </c>
       <c r="M1858">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1859" spans="1:13">
@@ -75403,7 +75403,7 @@
         <v>1</v>
       </c>
       <c r="M1861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1862" spans="1:13">
@@ -75517,7 +75517,7 @@
         <v>1</v>
       </c>
       <c r="M1864">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1865" spans="1:13">
@@ -75631,7 +75631,7 @@
         <v>1</v>
       </c>
       <c r="M1867">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1868" spans="1:13">
@@ -75745,7 +75745,7 @@
         <v>1</v>
       </c>
       <c r="M1870">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1871" spans="1:13">
@@ -76315,7 +76315,7 @@
         <v>1</v>
       </c>
       <c r="M1885">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1886" spans="1:13">
@@ -76657,7 +76657,7 @@
         <v>2</v>
       </c>
       <c r="M1894">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1895" spans="1:13">
@@ -76885,7 +76885,7 @@
         <v>1</v>
       </c>
       <c r="M1900">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1901" spans="1:13">
@@ -77151,7 +77151,7 @@
         <v>1</v>
       </c>
       <c r="M1907">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1908" spans="1:13">
@@ -77341,7 +77341,7 @@
         <v>1</v>
       </c>
       <c r="M1912">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1913" spans="1:13">
@@ -77379,7 +77379,7 @@
         <v>1</v>
       </c>
       <c r="M1913">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1914" spans="1:13">
@@ -77797,7 +77797,7 @@
         <v>1</v>
       </c>
       <c r="M1924">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1925" spans="1:13">
@@ -77835,7 +77835,7 @@
         <v>1</v>
       </c>
       <c r="M1925">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1926" spans="1:13">
@@ -78177,7 +78177,7 @@
         <v>1</v>
       </c>
       <c r="M1934">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1935" spans="1:13">
@@ -78443,7 +78443,7 @@
         <v>1</v>
       </c>
       <c r="M1941">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1942" spans="1:13">
@@ -78633,7 +78633,7 @@
         <v>1</v>
       </c>
       <c r="M1946">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1947" spans="1:13">
@@ -79431,7 +79431,7 @@
         <v>1</v>
       </c>
       <c r="M1967">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1968" spans="1:13">
@@ -79545,7 +79545,7 @@
         <v>1</v>
       </c>
       <c r="M1970">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1971" spans="1:13">
@@ -79849,7 +79849,7 @@
         <v>1</v>
       </c>
       <c r="M1978">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1979" spans="1:13">
@@ -80761,7 +80761,7 @@
         <v>1</v>
       </c>
       <c r="M2002">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2003" spans="1:13">
@@ -81103,7 +81103,7 @@
         <v>1</v>
       </c>
       <c r="M2011">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2012" spans="1:13">
@@ -81281,7 +81281,7 @@
         <v>4</v>
       </c>
       <c r="M2016">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2017" spans="1:13">
@@ -81411,7 +81411,7 @@
         <v>4</v>
       </c>
       <c r="M2021">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2022" spans="1:13">
@@ -82477,7 +82477,7 @@
         <v>1</v>
       </c>
       <c r="M2050">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2051" spans="1:13">
@@ -83897,7 +83897,7 @@
         <v>10</v>
       </c>
       <c r="M2088">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2089" spans="1:13">
@@ -85509,7 +85509,7 @@
         <v>10</v>
       </c>
       <c r="M2150">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2151" spans="1:13">
@@ -85585,7 +85585,7 @@
         <v>1</v>
       </c>
       <c r="M2152">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2153" spans="1:13">
@@ -85699,7 +85699,7 @@
         <v>1</v>
       </c>
       <c r="M2155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2156" spans="1:13">
@@ -86117,7 +86117,7 @@
         <v>1</v>
       </c>
       <c r="M2166">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2167" spans="1:13">
@@ -86155,7 +86155,7 @@
         <v>2</v>
       </c>
       <c r="M2167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2168" spans="1:13">
@@ -86231,7 +86231,7 @@
         <v>1</v>
       </c>
       <c r="M2169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2170" spans="1:13">
@@ -87903,7 +87903,7 @@
         <v>1</v>
       </c>
       <c r="M2213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2214" spans="1:13">
@@ -87979,7 +87979,7 @@
         <v>1</v>
       </c>
       <c r="M2215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2216" spans="1:13">
@@ -88195,7 +88195,7 @@
         <v>16</v>
       </c>
       <c r="M2221">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2222" spans="1:13">
@@ -88377,7 +88377,7 @@
         <v>16</v>
       </c>
       <c r="M2228">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2229" spans="1:13">
@@ -88403,7 +88403,7 @@
         <v>16</v>
       </c>
       <c r="M2229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2230" spans="1:13">
@@ -88455,7 +88455,7 @@
         <v>16</v>
       </c>
       <c r="M2231">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2232" spans="1:13">
@@ -88533,7 +88533,7 @@
         <v>16</v>
       </c>
       <c r="M2234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2235" spans="1:13">
@@ -88611,7 +88611,7 @@
         <v>16</v>
       </c>
       <c r="M2237">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2238" spans="1:13">
@@ -88663,7 +88663,7 @@
         <v>16</v>
       </c>
       <c r="M2239">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2240" spans="1:13">
@@ -88689,7 +88689,7 @@
         <v>16</v>
       </c>
       <c r="M2240">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2241" spans="1:13">
@@ -91611,7 +91611,7 @@
         <v>18</v>
       </c>
       <c r="M2321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2322" spans="1:13">
@@ -91793,7 +91793,7 @@
         <v>18</v>
       </c>
       <c r="M2328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2329" spans="1:13">
@@ -91819,7 +91819,7 @@
         <v>18</v>
       </c>
       <c r="M2329">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2330" spans="1:13">
@@ -92187,7 +92187,7 @@
         <v>1</v>
       </c>
       <c r="M2339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2340" spans="1:13">
@@ -92927,7 +92927,7 @@
         <v>19</v>
       </c>
       <c r="M2361">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2362" spans="1:13">
@@ -93031,7 +93031,7 @@
         <v>19</v>
       </c>
       <c r="M2365">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2366" spans="1:13">
@@ -93473,7 +93473,7 @@
         <v>14</v>
       </c>
       <c r="M2382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2383" spans="1:13">
@@ -94159,7 +94159,7 @@
         <v>2</v>
       </c>
       <c r="M2401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2402" spans="1:13">
@@ -94653,7 +94653,7 @@
         <v>2</v>
       </c>
       <c r="M2414">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2415" spans="1:13">
@@ -94691,7 +94691,7 @@
         <v>2</v>
       </c>
       <c r="M2415">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2416" spans="1:13">
@@ -95117,7 +95117,7 @@
         <v>15</v>
       </c>
       <c r="M2430">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2431" spans="1:13">
@@ -95169,7 +95169,7 @@
         <v>15</v>
       </c>
       <c r="M2432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2433" spans="1:13">
@@ -95195,7 +95195,7 @@
         <v>15</v>
       </c>
       <c r="M2433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2434" spans="1:13">
@@ -95221,7 +95221,7 @@
         <v>15</v>
       </c>
       <c r="M2434">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2435" spans="1:13">
@@ -95247,7 +95247,7 @@
         <v>15</v>
       </c>
       <c r="M2435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2436" spans="1:13">
@@ -95273,7 +95273,7 @@
         <v>15</v>
       </c>
       <c r="M2436">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2437" spans="1:13">
@@ -95299,7 +95299,7 @@
         <v>15</v>
       </c>
       <c r="M2437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2438" spans="1:13">
@@ -95325,7 +95325,7 @@
         <v>15</v>
       </c>
       <c r="M2438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2439" spans="1:13">
@@ -95351,7 +95351,7 @@
         <v>15</v>
       </c>
       <c r="M2439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2440" spans="1:13">
@@ -95377,7 +95377,7 @@
         <v>15</v>
       </c>
       <c r="M2440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2441" spans="1:13">
@@ -95481,7 +95481,7 @@
         <v>15</v>
       </c>
       <c r="M2444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2445" spans="1:13">
@@ -95533,7 +95533,7 @@
         <v>15</v>
       </c>
       <c r="M2446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2447" spans="1:13">
@@ -95559,7 +95559,7 @@
         <v>15</v>
       </c>
       <c r="M2447">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2448" spans="1:13">
@@ -95611,7 +95611,7 @@
         <v>15</v>
       </c>
       <c r="M2449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2450" spans="1:13">
@@ -95689,7 +95689,7 @@
         <v>15</v>
       </c>
       <c r="M2452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2453" spans="1:13">
@@ -95715,7 +95715,7 @@
         <v>15</v>
       </c>
       <c r="M2453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2454" spans="1:13">
@@ -95767,7 +95767,7 @@
         <v>15</v>
       </c>
       <c r="M2455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2456" spans="1:13">
@@ -95793,7 +95793,7 @@
         <v>15</v>
       </c>
       <c r="M2456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2457" spans="1:13">
@@ -95819,7 +95819,7 @@
         <v>15</v>
       </c>
       <c r="M2457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2458" spans="1:13">
